--- a/SHArC/SHArea/InphaseC4_sharea_chsp.xlsx
+++ b/SHArC/SHArea/InphaseC4_sharea_chsp.xlsx
@@ -449,7 +449,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Discharge (cfs)</a:t>
+                  <a:t>Discharge (m³/s)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -677,7 +677,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" baseline="0" i="0" lang="en-US" strike="noStrike" sz="1000"/>
-                  <a:t>Discharge (cfs)</a:t>
+                  <a:t>Discharge (m³/s)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -775,7 +775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Calculated Area (acres)</a:t>
+                  <a:t>Calculated Area (m²)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1175,7 +1175,7 @@
   <dimension ref="B2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1190,7 +1190,7 @@
     <col customWidth="1" max="8" min="8" style="6" width="2.28515625"/>
     <col customWidth="1" max="9" min="9" style="6" width="12.42578125"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="6" width="10"/>
-    <col customWidth="1" max="11" min="11" style="14" width="11.42578125"/>
+    <col customWidth="1" max="11" min="11" style="14" width="11.85546875"/>
     <col customWidth="1" max="16" min="12" style="6" width="9.140625"/>
     <col customWidth="1" max="16384" min="17" style="6" width="9.140625"/>
   </cols>
@@ -1238,14 +1238,14 @@
       </c>
       <c r="K2" s="12" t="inlineStr">
         <is>
-          <t>(ac/season)</t>
+          <t>(m²/season)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>(cfs)</t>
+          <t>(m³/s)</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>(ac per discharge)</t>
+          <t>(m² per discharge)</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>(ac·%exceed.)</t>
+          <t>(m²·%exceed.)</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
         <v>3.920214705773166</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>20212</v>
+        <v>20227</v>
       </c>
       <c r="G4" s="15">
         <f>IF(NOT(ISBLANK(F4)),E4/100*F4, "")</f>
@@ -1317,7 +1317,7 @@
         <v>4.349242883600829</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>19187</v>
+        <v>19259</v>
       </c>
       <c r="G5" s="15">
         <f>IF(NOT(ISBLANK(F5)),(E5-E4)/100*F5,"")</f>
@@ -1342,7 +1342,7 @@
         <v>4.718032061091793</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>18057</v>
+        <v>18145</v>
       </c>
       <c r="G6" s="15">
         <f>IF(NOT(ISBLANK(F6)),(E6-E5)/100*F6,"")</f>
@@ -1367,7 +1367,7 @@
         <v>5.238612317630025</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>16653</v>
+        <v>16763</v>
       </c>
       <c r="G7" s="15">
         <f>IF(NOT(ISBLANK(F7)),(E7-E6)/100*F7,"")</f>
@@ -1392,7 +1392,7 @@
         <v>5.715448529421875</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>14979</v>
+        <v>15097</v>
       </c>
       <c r="G8" s="15">
         <f>IF(NOT(ISBLANK(F8)),(E8-E7)/100*F8,"")</f>
@@ -1417,7 +1417,7 @@
         <v>6.474036125444968</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>12855</v>
+        <v>12979</v>
       </c>
       <c r="G9" s="15">
         <f>IF(NOT(ISBLANK(F9)),(E9-E8)/100*F9,"")</f>
@@ -1442,7 +1442,7 @@
         <v>7.445026048433999</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>10814</v>
+        <v>11003</v>
       </c>
       <c r="G10" s="15">
         <f>IF(NOT(ISBLANK(F10)),(E10-E9)/100*F10,"")</f>
@@ -1467,7 +1467,7 @@
         <v>8.659217185779164</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>8966</v>
+        <v>9019</v>
       </c>
       <c r="G11" s="15">
         <f>IF(NOT(ISBLANK(F11)),(E11-E10)/100*F11,"")</f>
@@ -1492,7 +1492,7 @@
         <v>9.507492791822896</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>7057</v>
+        <v>7056</v>
       </c>
       <c r="G12" s="15">
         <f>IF(NOT(ISBLANK(F12)),(E12-E11)/100*F12,"")</f>
@@ -1517,7 +1517,7 @@
         <v>10.15053643687122</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>6098</v>
+        <v>6097</v>
       </c>
       <c r="G13" s="15">
         <f>IF(NOT(ISBLANK(F13)),(E13-E12)/100*F13,"")</f>
@@ -1542,7 +1542,7 @@
         <v>18.12179035032359</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>5517</v>
+        <v>5515</v>
       </c>
       <c r="G14" s="15">
         <f>IF(NOT(ISBLANK(F14)),(E14-E13)/100*F14,"")</f>
@@ -1567,7 +1567,7 @@
         <v>20.56898194552722</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="G15" s="15">
         <f>IF(NOT(ISBLANK(F15)),(E15-E14)/100*F15,"")</f>
@@ -1592,7 +1592,7 @@
         <v>23.19857445149794</v>
       </c>
       <c r="F16" s="15" t="n">
-        <v>4834</v>
+        <v>4832</v>
       </c>
       <c r="G16" s="15">
         <f>IF(NOT(ISBLANK(F16)),(E16-E15)/100*F16,"")</f>
@@ -1617,7 +1617,7 @@
         <v>25.75367214859363</v>
       </c>
       <c r="F17" s="15" t="n">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="G17" s="15">
         <f>IF(NOT(ISBLANK(F17)),(E17-E16)/100*F17,"")</f>
@@ -1642,7 +1642,7 @@
         <v>28.63818044573139</v>
       </c>
       <c r="F18" s="15" t="n">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="G18" s="15">
         <f>IF(NOT(ISBLANK(F18)),(E18-E17)/100*F18,"")</f>
